--- a/nr-add-changelog/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/nr-add-changelog/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T17:11:50+00:00</t>
+    <t>2025-11-18T17:12:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-changelog/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/nr-add-changelog/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T17:12:23+00:00</t>
+    <t>2025-11-18T17:18:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CareTeam</t>
+    <t>http://hl7.org/fhir/StructureDefinition/CareTeam|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -873,7 +873,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.1.0)
 </t>
   </si>
   <si>
@@ -1048,7 +1048,7 @@
     <t>Roles may sometimes be inferred by type of Practitioner.  These are relationships that hold only within the context of the care team.  General relationships should be handled as properties of the Patient resource directly.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/cds/ValueSet/careteam-roles-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/cds/ValueSet/careteam-roles-vs|2.0.1</t>
   </si>
   <si>
     <t>REL.2 (or PRT-4?)</t>
@@ -1060,7 +1060,7 @@
     <t>CareTeam.participant.member</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person|https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|1.1.0|https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person|2.0.1|https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-organization|2.0.1)
 </t>
   </si>
   <si>
@@ -1537,7 +1537,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="202.16796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="215.75390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1552,7 +1552,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.7109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.23828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
